--- a/modelos/OBALEI4421033/OBALEI4421033_Sell Out_metricas.xlsx
+++ b/modelos/OBALEI4421033/OBALEI4421033_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45015</v>
       </c>
       <c r="B2" t="n">
-        <v>1317.540089722379</v>
+        <v>1373.733825413484</v>
       </c>
       <c r="C2" t="n">
-        <v>1028.187041138832</v>
+        <v>1072.842107023421</v>
       </c>
       <c r="D2" t="n">
-        <v>1626.663106117919</v>
+        <v>1689.790690192551</v>
       </c>
       <c r="E2" t="n">
         <v>899</v>
@@ -496,13 +496,13 @@
         <v>45024</v>
       </c>
       <c r="B3" t="n">
-        <v>1127.688456977912</v>
+        <v>1138.27682593212</v>
       </c>
       <c r="C3" t="n">
-        <v>814.2994229609883</v>
+        <v>840.41611672775</v>
       </c>
       <c r="D3" t="n">
-        <v>1445.300935447284</v>
+        <v>1459.294252293291</v>
       </c>
       <c r="E3" t="n">
         <v>1699</v>
@@ -516,13 +516,13 @@
         <v>45026</v>
       </c>
       <c r="B4" t="n">
-        <v>1248.084315453692</v>
+        <v>1316.594570902987</v>
       </c>
       <c r="C4" t="n">
-        <v>951.0757048603721</v>
+        <v>989.6864652640362</v>
       </c>
       <c r="D4" t="n">
-        <v>1568.925459232361</v>
+        <v>1623.8944117756</v>
       </c>
       <c r="E4" t="n">
         <v>1075</v>
@@ -536,13 +536,13 @@
         <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>1256.044640671463</v>
+        <v>1318.056370097591</v>
       </c>
       <c r="C5" t="n">
-        <v>932.769740590065</v>
+        <v>1026.361343565569</v>
       </c>
       <c r="D5" t="n">
-        <v>1551.146075047209</v>
+        <v>1649.775432080458</v>
       </c>
       <c r="E5" t="n">
         <v>958</v>
@@ -556,13 +556,13 @@
         <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>1218.20347125871</v>
+        <v>1275.260114288788</v>
       </c>
       <c r="C6" t="n">
-        <v>911.6531330569564</v>
+        <v>927.4729353242329</v>
       </c>
       <c r="D6" t="n">
-        <v>1538.179306086783</v>
+        <v>1597.082564985734</v>
       </c>
       <c r="E6" t="n">
         <v>767</v>
@@ -637,22 +637,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>175175.8067048167</v>
+        <v>225372.2049917206</v>
       </c>
       <c r="C2" t="n">
-        <v>418.5400897223785</v>
+        <v>474.7338254134843</v>
       </c>
       <c r="D2" t="n">
-        <v>418.5400897223785</v>
+        <v>474.7338254134843</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4655618350638248</v>
+        <v>0.5280687713164453</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4655618350638248</v>
+        <v>0.5280687713164453</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3776517209529024</v>
+        <v>0.4177645618726291</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -663,22 +663,22 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>326396.8791902794</v>
+        <v>314410.4779367579</v>
       </c>
       <c r="C3" t="n">
-        <v>571.3115430220882</v>
+        <v>560.7231740678799</v>
       </c>
       <c r="D3" t="n">
-        <v>571.3115430220882</v>
+        <v>560.7231740678799</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3362634155515528</v>
+        <v>0.3300312972736197</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3362634155515528</v>
+        <v>0.3300312972736197</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4042267492278881</v>
+        <v>0.3952544700206809</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -689,25 +689,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>107457.7868549881</v>
+        <v>148778.9567048345</v>
       </c>
       <c r="C4" t="n">
-        <v>327.8075454515775</v>
+        <v>385.7187533745728</v>
       </c>
       <c r="D4" t="n">
-        <v>307.4441424612884</v>
+        <v>369.9703517631219</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3534634928523838</v>
+        <v>0.4210802401131722</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3111113159409848</v>
+        <v>0.375841722440074</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2909366364897586</v>
+        <v>0.3387217789052234</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBALEI4421033/OBALEI4421033_Sell Out_metricas.xlsx
+++ b/modelos/OBALEI4421033/OBALEI4421033_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45015</v>
+        <v>45024</v>
       </c>
       <c r="B2" t="n">
-        <v>1373.733825413484</v>
+        <v>1280.602300887807</v>
       </c>
       <c r="C2" t="n">
-        <v>1072.842107023421</v>
+        <v>929.2978856925469</v>
       </c>
       <c r="D2" t="n">
-        <v>1689.790690192551</v>
+        <v>1648.671562644419</v>
       </c>
       <c r="E2" t="n">
-        <v>899</v>
+        <v>1699</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45012</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45024</v>
+        <v>45026</v>
       </c>
       <c r="B3" t="n">
-        <v>1138.27682593212</v>
+        <v>1249.398388234852</v>
       </c>
       <c r="C3" t="n">
-        <v>840.41611672775</v>
+        <v>903.600224883059</v>
       </c>
       <c r="D3" t="n">
-        <v>1459.294252293291</v>
+        <v>1593.322618745733</v>
       </c>
       <c r="E3" t="n">
-        <v>1699</v>
+        <v>1075</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45019</v>
@@ -513,61 +513,41 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1253.14536493331</v>
+      </c>
+      <c r="C4" t="n">
+        <v>890.8198871042408</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1616.643731416065</v>
+      </c>
+      <c r="E4" t="n">
+        <v>958</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>45026</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1316.594570902987</v>
-      </c>
-      <c r="C4" t="n">
-        <v>989.6864652640362</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1623.8944117756</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1075</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>45019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>1318.056370097591</v>
+        <v>1217.869381798702</v>
       </c>
       <c r="C5" t="n">
-        <v>1026.361343565569</v>
+        <v>819.7475444244925</v>
       </c>
       <c r="D5" t="n">
-        <v>1649.775432080458</v>
+        <v>1608.823530680315</v>
       </c>
       <c r="E5" t="n">
-        <v>958</v>
+        <v>767</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45026</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1275.260114288788</v>
-      </c>
-      <c r="C6" t="n">
-        <v>927.4729353242329</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1597.082564985734</v>
-      </c>
-      <c r="E6" t="n">
-        <v>767</v>
-      </c>
-      <c r="F6" s="2" t="n">
         <v>45033</v>
       </c>
     </row>
@@ -582,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,25 +614,25 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>225372.2049917206</v>
+        <v>175056.6346223771</v>
       </c>
       <c r="C2" t="n">
-        <v>474.7338254134843</v>
+        <v>418.3976991121929</v>
       </c>
       <c r="D2" t="n">
-        <v>474.7338254134843</v>
+        <v>418.3976991121929</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5280687713164453</v>
+        <v>0.2462611530972295</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5280687713164453</v>
+        <v>0.2462611530972295</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4177645618726291</v>
+        <v>0.2808413048865793</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -660,54 +640,28 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>314410.4779367579</v>
+        <v>106936.2612346915</v>
       </c>
       <c r="C3" t="n">
-        <v>560.7231740678799</v>
+        <v>327.0111026168553</v>
       </c>
       <c r="D3" t="n">
-        <v>560.7231740678799</v>
+        <v>306.8043783222879</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3300312972736197</v>
+        <v>0.3527169695010559</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3300312972736197</v>
+        <v>0.3080849320806991</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3952544700206809</v>
+        <v>0.2904422728765932</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>148778.9567048345</v>
-      </c>
-      <c r="C4" t="n">
-        <v>385.7187533745728</v>
-      </c>
-      <c r="D4" t="n">
-        <v>369.9703517631219</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4210802401131722</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.375841722440074</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3387217789052234</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBALEI4421033/OBALEI4421033_Sell Out_metricas.xlsx
+++ b/modelos/OBALEI4421033/OBALEI4421033_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45024</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.602300887807</v>
+        <v>1158.396191972627</v>
       </c>
       <c r="C2" t="n">
-        <v>929.2978856925469</v>
+        <v>787.0803730895152</v>
       </c>
       <c r="D2" t="n">
-        <v>1648.671562644419</v>
+        <v>1512.338884952342</v>
       </c>
       <c r="E2" t="n">
         <v>1699</v>
@@ -496,13 +496,13 @@
         <v>45026</v>
       </c>
       <c r="B3" t="n">
-        <v>1249.398388234852</v>
+        <v>1275.38771118949</v>
       </c>
       <c r="C3" t="n">
-        <v>903.600224883059</v>
+        <v>909.2986114552471</v>
       </c>
       <c r="D3" t="n">
-        <v>1593.322618745733</v>
+        <v>1620.904408775881</v>
       </c>
       <c r="E3" t="n">
         <v>1075</v>
@@ -516,13 +516,13 @@
         <v>45033</v>
       </c>
       <c r="B4" t="n">
-        <v>1253.14536493331</v>
+        <v>1281.53285576592</v>
       </c>
       <c r="C4" t="n">
-        <v>890.8198871042408</v>
+        <v>873.4775295088266</v>
       </c>
       <c r="D4" t="n">
-        <v>1616.643731416065</v>
+        <v>1625.901825480176</v>
       </c>
       <c r="E4" t="n">
         <v>958</v>
@@ -536,13 +536,13 @@
         <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>1217.869381798702</v>
+        <v>1246.11535377955</v>
       </c>
       <c r="C5" t="n">
-        <v>819.7475444244925</v>
+        <v>909.2176028220426</v>
       </c>
       <c r="D5" t="n">
-        <v>1608.823530680315</v>
+        <v>1589.696851767194</v>
       </c>
       <c r="E5" t="n">
         <v>767</v>
@@ -617,22 +617,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>175056.6346223771</v>
+        <v>292252.4772536966</v>
       </c>
       <c r="C2" t="n">
-        <v>418.3976991121929</v>
+        <v>540.6038080273729</v>
       </c>
       <c r="D2" t="n">
-        <v>418.3976991121929</v>
+        <v>540.6038080273729</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2462611530972295</v>
+        <v>0.3181894102574296</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2462611530972295</v>
+        <v>0.3181894102574296</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2808413048865793</v>
+        <v>0.3783891149194558</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>106936.2612346915</v>
+        <v>124793.421927706</v>
       </c>
       <c r="C3" t="n">
-        <v>327.0111026168553</v>
+        <v>353.261124280193</v>
       </c>
       <c r="D3" t="n">
-        <v>306.8043783222879</v>
+        <v>334.3453069116534</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3527169695010559</v>
+        <v>0.3829285399467132</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3080849320806991</v>
+        <v>0.3377169684404178</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2904422728765932</v>
+        <v>0.3118124721643878</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666667</v>
